--- a/Week1/Docs/SE1601_SWP391_OnlineShop_ProductBacklog_W1.xlsx
+++ b/Week1/Docs/SE1601_SWP391_OnlineShop_ProductBacklog_W1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
   <si>
     <t>THE APPLICATION DEVELOPMENT PROJECT TOPIC (SWP391)</t>
   </si>
@@ -120,6 +120,24 @@
   <si>
     <t>Phạm Anh Đức</t>
   </si>
+  <si>
+    <t>User Profile</t>
+  </si>
+  <si>
+    <t>Customer can register view their infomation</t>
+  </si>
+  <si>
+    <t>Đỗ Đức Hữu</t>
+  </si>
+  <si>
+    <t>User List</t>
+  </si>
+  <si>
+    <t>Admin manage accounts</t>
+  </si>
+  <si>
+    <t>Simple</t>
+  </si>
 </sst>
 </file>
 
@@ -127,11 +145,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="35">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -149,7 +167,7 @@
       <b/>
       <sz val="15"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Sitka Display"/>
       <charset val="134"/>
     </font>
     <font>
@@ -157,22 +175,20 @@
       <i/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Sitka Display"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="24"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Sitka Display"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Sitka Display"/>
       <charset val="134"/>
     </font>
     <font>
@@ -191,18 +207,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
+      <name val="Sitka Display"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Sitka Display"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Sitka Display"/>
       <charset val="134"/>
     </font>
@@ -238,8 +248,121 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="Sitka Display"/>
       <charset val="163"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -258,113 +381,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -377,16 +395,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="38">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -461,13 +471,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFD965"/>
+        <bgColor rgb="FFFFD965"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E2F3"/>
+        <bgColor rgb="FFD9E2F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFD9"/>
+        <bgColor rgb="FFE2EFD9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,25 +513,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,19 +537,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,7 +567,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,43 +609,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -599,18 +633,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -634,28 +662,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
+      <left style="thin">
+        <color rgb="FF000000"/>
       </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
+      <right style="thin">
+        <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FFCCCCCC"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -690,6 +707,69 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -716,69 +796,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -790,7 +807,7 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -808,135 +825,135 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="36" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -950,11 +967,11 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="32" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -974,13 +991,13 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -989,45 +1006,44 @@
     <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1425,8 +1441,8 @@
   <sheetPr/>
   <dimension ref="A1:I983"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -1485,7 +1501,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" ht="19.2" spans="1:9">
+    <row r="5" ht="24.6" spans="1:9">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
@@ -1498,7 +1514,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" ht="19.8" spans="1:9">
       <c r="A6" s="5" t="s">
         <v>1</v>
       </c>
@@ -1511,7 +1527,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" ht="31.2" spans="1:9">
+    <row r="7" ht="39" spans="1:9">
       <c r="A7" s="6" t="s">
         <v>2</v>
       </c>
@@ -1524,21 +1540,21 @@
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" ht="18" spans="1:9">
       <c r="A8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
     </row>
     <row r="9" ht="19.8" spans="1:9">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -1728,49 +1744,81 @@
       </c>
       <c r="I15" s="33"/>
     </row>
-    <row r="16" ht="20.55" spans="1:9">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="34"/>
-    </row>
-    <row r="17" ht="16.35" spans="1:9">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="26"/>
+    <row r="16" ht="19.8" spans="1:9">
+      <c r="A16" s="13">
+        <v>7</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="18">
+        <v>120</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="33"/>
+    </row>
+    <row r="17" ht="20.55" spans="1:9">
+      <c r="A17" s="13">
+        <v>8</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="18">
+        <v>120</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="33"/>
     </row>
     <row r="18" ht="16.35" spans="1:9">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
       <c r="F18" s="27"/>
       <c r="G18" s="27"/>
       <c r="H18" s="28"/>
-      <c r="I18" s="26"/>
+      <c r="I18" s="25"/>
     </row>
     <row r="19" ht="16.35" spans="3:8">
-      <c r="C19" s="23"/>
+      <c r="C19" s="26"/>
       <c r="H19" s="29"/>
     </row>
     <row r="20" ht="16.35" spans="3:8">
-      <c r="C20" s="23"/>
+      <c r="C20" s="26"/>
       <c r="H20" s="29"/>
     </row>
     <row r="21" ht="16.35" spans="3:8">
-      <c r="C21" s="23"/>
+      <c r="C21" s="26"/>
       <c r="H21" s="29"/>
     </row>
     <row r="22" ht="16.35" spans="3:8">
